--- a/doc/game-config/drama.xlsx
+++ b/doc/game-config/drama.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -59,19 +59,28 @@
     <t>y</t>
   </si>
   <si>
+    <t>704,448</t>
+  </si>
+  <si>
     <t>so nervous...</t>
   </si>
   <si>
+    <t>768,448</t>
+  </si>
+  <si>
     <t>Kai has something to tell me...</t>
   </si>
   <si>
     <t>finally you are coming</t>
   </si>
   <si>
-    <t>I love you!</t>
+    <t>I love you!,1000001</t>
   </si>
   <si>
     <t>thank you, but give me some tiime</t>
+  </si>
+  <si>
+    <t>1000001,736,448,5</t>
   </si>
 </sst>
 </file>
@@ -763,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,7 +797,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,13 +810,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,7 +1143,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1247,8 +1253,8 @@
       <c r="F4" s="7">
         <v>112</v>
       </c>
-      <c r="G4" s="8">
-        <v>704448</v>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -1272,7 +1278,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -1295,8 +1301,8 @@
       <c r="F6" s="7">
         <v>112</v>
       </c>
-      <c r="G6" s="8">
-        <v>736448</v>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -1320,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -1344,7 +1350,7 @@
         <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1365,10 +1371,10 @@
         <v>10018</v>
       </c>
       <c r="F9" s="7">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -1392,18 +1398,32 @@
         <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="11"/>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12">
+        <v>10019</v>
+      </c>
+      <c r="F11" s="7">
+        <v>140</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
   </sheetData>
